--- a/Working_with_form/bin/Debug/Catalog.xlsx
+++ b/Working_with_form/bin/Debug/Catalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Домашний" sheetId="3" r:id="rId3"/>
     <sheet name="Дизайнерский" sheetId="4" r:id="rId4"/>
     <sheet name="Игровой" sheetId="5" r:id="rId5"/>
-    <sheet name="Ноутбук" sheetId="6" r:id="rId6"/>
+    <sheet name="Ноутбук" sheetId="10" r:id="rId6"/>
     <sheet name="Серверный" sheetId="7" r:id="rId7"/>
     <sheet name="Test" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Домашний</t>
   </si>
@@ -94,15 +94,6 @@
   </si>
   <si>
     <t>ПК iRU City 101 в составе INTEL Core i5 11400F/ASUS PRIME H510M-K/8gb/RTX3060Ti 8gb//512gb/700w</t>
-  </si>
-  <si>
-    <t>Notebook1</t>
-  </si>
-  <si>
-    <t>Notebook2</t>
-  </si>
-  <si>
-    <t>Notebook3</t>
   </si>
   <si>
     <t>GamePC1</t>
@@ -159,9 +150,6 @@
   </si>
   <si>
     <t>OficePC2</t>
-  </si>
-  <si>
-    <t>Pasdfasdlfkajsdfasdfasdfasdfasdf</t>
   </si>
 </sst>
 </file>
@@ -484,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,26 +531,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -643,10 +631,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +644,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -669,7 +657,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -677,7 +665,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -685,18 +673,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -706,41 +686,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="78.5703125" customWidth="1"/>
-    <col min="2" max="2" width="125.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -763,23 +724,23 @@
   <sheetData>
     <row r="1" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>

--- a/Working_with_form/bin/Debug/Catalog.xlsx
+++ b/Working_with_form/bin/Debug/Catalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Домашний</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>OficePC2</t>
+  </si>
+  <si>
+    <t>Notebook1</t>
+  </si>
+  <si>
+    <t>Notebook2</t>
+  </si>
+  <si>
+    <t>Notebook3</t>
   </si>
 </sst>
 </file>
@@ -472,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,22 +695,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>132</v>
+      <c r="A1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
       <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
